--- a/differents_things/projects/CV/С#.xlsx
+++ b/differents_things/projects/CV/С#.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignore/Documents/GitHub/Raspberry/differents_things/projects/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B510996E-638F-9047-993B-540761368AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB8EF92-28F9-B942-94C2-2BC3553641C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39500" yWindow="1560" windowWidth="35120" windowHeight="17440" activeTab="1" xr2:uid="{3B92BF37-CD52-3D42-AAC1-865DC45F414A}"/>
+    <workbookView xWindow="39500" yWindow="2680" windowWidth="35120" windowHeight="17440" xr2:uid="{3B92BF37-CD52-3D42-AAC1-865DC45F414A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C6FCEC-DCB4-5145-9BCA-F12DDF55A520}">
   <dimension ref="D6:O24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7525E63-A09E-B84D-A316-B2568806C715}">
   <dimension ref="A9:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
